--- a/testData/ExecuteTask/Notification/ETRM/ET_NT_ETRM_DateAfterDays_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRM/ET_NT_ETRM_DateAfterDays_Test.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
   <si>
     <t>ModuleName</t>
   </si>
@@ -277,12 +277,34 @@
   </si>
   <si>
     <t>wf_ET_ETRM_Notifications</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>30-05-2024</t>
+  </si>
+  <si>
+    <t>30-05-2024 02:53:30 PM</t>
+  </si>
+  <si>
+    <t>ET467</t>
+  </si>
+  <si>
+    <t>30-05-2024 02:59:31 PM</t>
+  </si>
+  <si>
+    <t>ET468</t>
+  </si>
+  <si>
+    <t>ET469</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -640,43 +662,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="12.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="23.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="10.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="11.36328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="18.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="15.453125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="6.7265625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="21.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="11.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="10.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="12.90625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="22.0"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="7.36328125"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="9.6328125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="7.453125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="17.26953125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="18.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="14.90625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="30.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="11.90625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="18.36328125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="18.26953125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="11.6328125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="11.81640625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="19.26953125"/>
+    <col min="37" max="16384" style="1" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -820,8 +842,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>76</v>
+      <c r="K2" t="s" s="1">
+        <v>86</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -829,11 +851,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>78</v>
+      <c r="N2" t="s" s="1">
+        <v>87</v>
+      </c>
+      <c r="O2" t="s" s="1">
+        <v>67</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -880,8 +902,8 @@
       <c r="AF2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>80</v>
+      <c r="AG2" t="s" s="1">
+        <v>88</v>
       </c>
       <c r="AH2" s="7">
         <v>5</v>
@@ -892,8 +914,8 @@
       <c r="AJ2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AK2" s="1" t="s">
-        <v>75</v>
+      <c r="AK2" t="s" s="1">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -915,24 +937,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" customWidth="true" width="21.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1076,8 +1098,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>76</v>
+      <c r="K2" t="s" s="0">
+        <v>86</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1085,11 +1107,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" t="s">
-        <v>78</v>
+      <c r="N2" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>67</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1138,8 +1160,8 @@
       <c r="AF2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AG2" t="s">
-        <v>68</v>
+      <c r="AG2" t="s" s="0">
+        <v>90</v>
       </c>
       <c r="AH2" s="7">
         <v>5</v>
@@ -1170,14 +1192,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -1321,8 +1343,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>76</v>
+      <c r="K2" t="s" s="0">
+        <v>86</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1330,11 +1352,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" t="s">
-        <v>78</v>
+      <c r="N2" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>67</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1383,8 +1405,8 @@
       <c r="AF2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AG2" t="s">
-        <v>69</v>
+      <c r="AG2" t="s" s="0">
+        <v>91</v>
       </c>
       <c r="AH2" s="7">
         <v>5</v>
@@ -1418,42 +1440,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.36328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.36328125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="6.7265625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.7265625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="28.81640625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="9.6328125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="7.453125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="17.26953125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="18.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="30.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="18.26953125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.6328125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="19.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1597,8 +1619,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>79</v>
+      <c r="K2" t="s" s="0">
+        <v>86</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1606,10 +1628,10 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="O2" t="s" s="0">
         <v>67</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1659,8 +1681,8 @@
       <c r="AF2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AG2" t="s">
-        <v>81</v>
+      <c r="AG2" t="s" s="0">
+        <v>91</v>
       </c>
       <c r="AH2" s="7">
         <v>5</v>

--- a/testData/ExecuteTask/Notification/ETRM/ET_NT_ETRM_DateAfterDays_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRM/ET_NT_ETRM_DateAfterDays_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="83">
   <si>
     <t>ModuleName</t>
   </si>
@@ -228,15 +228,6 @@
     <t>02:35:55 PM</t>
   </si>
   <si>
-    <t>ET163</t>
-  </si>
-  <si>
-    <t>ET164</t>
-  </si>
-  <si>
-    <t>tskNT_ExecuteTask_DateAfterDays</t>
-  </si>
-  <si>
     <t>TimeHour</t>
   </si>
   <si>
@@ -249,27 +240,6 @@
     <t>00</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>26-05-2024</t>
-  </si>
-  <si>
-    <t>26-05-2024 05:00:00 PM</t>
-  </si>
-  <si>
-    <t>05:00:00 PM</t>
-  </si>
-  <si>
-    <t>23-05-2024</t>
-  </si>
-  <si>
-    <t>ET360</t>
-  </si>
-  <si>
-    <t>ET362</t>
-  </si>
-  <si>
     <t>Every time the record is modified</t>
   </si>
   <si>
@@ -298,13 +268,15 @@
   </si>
   <si>
     <t>ET469</t>
+  </si>
+  <si>
+    <t>ET_DateAfterDays</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -656,49 +628,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="12.453125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="23.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="10.26953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="11.36328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.54296875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="18.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.0"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="15.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.08984375"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="6.7265625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="11.0"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="21.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="11.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="10.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="12.90625"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="22.0"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="7.36328125"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="9.6328125"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="7.453125"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="17.26953125"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="18.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="14.90625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="30.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="11.90625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="18.36328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="18.26953125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="11.6328125"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="11.81640625"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="19.26953125"/>
-    <col min="37" max="16384" style="1" width="9.1796875"/>
+    <col min="1" max="1" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -802,13 +774,13 @@
         <v>49</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.35">
@@ -816,7 +788,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -842,8 +814,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="1">
-        <v>86</v>
+      <c r="K2" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -851,10 +823,10 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="1">
-        <v>87</v>
-      </c>
-      <c r="O2" t="s" s="1">
+      <c r="N2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>67</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -885,13 +857,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>24</v>
@@ -900,22 +872,22 @@
         <v>46</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG2" t="s" s="1">
-        <v>88</v>
+        <v>73</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AH2" s="7">
         <v>5</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK2" t="s" s="1">
-        <v>85</v>
+        <v>71</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -931,30 +903,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" customWidth="true" width="21.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.26953125"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1058,13 +1030,13 @@
         <v>49</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -1072,7 +1044,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1098,8 +1070,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>86</v>
+      <c r="K2" t="s">
+        <v>76</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1107,10 +1079,10 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="O2" t="s" s="0">
+      <c r="N2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" t="s">
         <v>67</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1141,13 +1113,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1158,19 +1130,19 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>90</v>
+        <v>73</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>80</v>
       </c>
       <c r="AH2" s="7">
         <v>5</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1186,20 +1158,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -1303,13 +1275,13 @@
         <v>49</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="29" x14ac:dyDescent="0.35">
@@ -1317,7 +1289,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1343,8 +1315,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>86</v>
+      <c r="K2" t="s">
+        <v>76</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1352,10 +1324,10 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="O2" t="s" s="0">
+      <c r="N2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" t="s">
         <v>67</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1386,13 +1358,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1403,22 +1375,22 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>91</v>
+        <v>73</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>81</v>
       </c>
       <c r="AH2" s="7">
         <v>5</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1434,48 +1406,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.26953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.36328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.54296875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.36328125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.81640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.36328125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="6.7265625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.7265625"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="8.26953125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="28.81640625"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="9.6328125"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="7.453125"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="17.26953125"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="18.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.90625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="30.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="8.26953125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.90625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="18.36328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="18.26953125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="11.6328125"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="19.26953125"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1579,13 +1551,13 @@
         <v>49</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -1593,7 +1565,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1619,8 +1591,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>86</v>
+      <c r="K2" t="s">
+        <v>76</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1628,10 +1600,10 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="O2" t="s" s="0">
+      <c r="N2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" t="s">
         <v>67</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1662,13 +1634,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1679,19 +1651,19 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>91</v>
+        <v>73</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>81</v>
       </c>
       <c r="AH2" s="7">
         <v>5</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/testData/ExecuteTask/Notification/ETRM/ET_NT_ETRM_DateAfterDays_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRM/ET_NT_ETRM_DateAfterDays_Test.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="89">
   <si>
     <t>ModuleName</t>
   </si>
@@ -271,12 +271,31 @@
   </si>
   <si>
     <t>ET_DateAfterDays</t>
+  </si>
+  <si>
+    <t>27-07-2024</t>
+  </si>
+  <si>
+    <t>30-07-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>02:35:55 AM</t>
+  </si>
+  <si>
+    <t>ET2830</t>
+  </si>
+  <si>
+    <t>ET2831</t>
+  </si>
+  <si>
+    <t>ET2832</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -634,43 +653,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="12.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="23.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="10.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="11.36328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="18.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="15.453125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="6.7265625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="21.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="11.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="10.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="12.90625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="22.0"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="7.36328125"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="9.6328125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="7.453125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="17.26953125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="18.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="14.90625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="30.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="11.90625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="18.36328125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="18.26953125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="11.6328125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="11.81640625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="19.26953125"/>
+    <col min="37" max="16384" style="1" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -814,8 +833,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>76</v>
+      <c r="K2" t="s" s="1">
+        <v>83</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -823,11 +842,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>67</v>
+      <c r="N2" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="O2" t="s" s="1">
+        <v>85</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -874,8 +893,8 @@
       <c r="AF2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>78</v>
+      <c r="AG2" t="s" s="1">
+        <v>86</v>
       </c>
       <c r="AH2" s="7">
         <v>5</v>
@@ -886,7 +905,7 @@
       <c r="AJ2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AK2" t="s" s="1">
         <v>75</v>
       </c>
     </row>
@@ -909,24 +928,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" customWidth="true" width="21.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1070,8 +1089,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>76</v>
+      <c r="K2" t="s" s="0">
+        <v>83</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1079,11 +1098,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2" t="s">
-        <v>67</v>
+      <c r="N2" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>85</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1132,8 +1151,8 @@
       <c r="AF2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AG2" t="s">
-        <v>80</v>
+      <c r="AG2" t="s" s="0">
+        <v>87</v>
       </c>
       <c r="AH2" s="7">
         <v>5</v>
@@ -1164,14 +1183,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -1315,8 +1334,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>76</v>
+      <c r="K2" t="s" s="0">
+        <v>83</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1324,11 +1343,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2" t="s">
-        <v>67</v>
+      <c r="N2" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>85</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1377,8 +1396,8 @@
       <c r="AF2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AG2" t="s">
-        <v>81</v>
+      <c r="AG2" t="s" s="0">
+        <v>88</v>
       </c>
       <c r="AH2" s="7">
         <v>5</v>
@@ -1412,42 +1431,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.36328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.36328125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="6.7265625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.7265625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="28.81640625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="9.6328125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="7.453125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="17.26953125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="18.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="30.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="18.26953125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.6328125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="19.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1591,8 +1610,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>76</v>
+      <c r="K2" t="s" s="0">
+        <v>83</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1600,11 +1619,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2" t="s">
-        <v>67</v>
+      <c r="N2" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>85</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1653,8 +1672,8 @@
       <c r="AF2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AG2" t="s">
-        <v>81</v>
+      <c r="AG2" t="s" s="0">
+        <v>88</v>
       </c>
       <c r="AH2" s="7">
         <v>5</v>
